--- a/Finflux Automation Excels/Client/5016-CreateEmiPack-DisbLoan-Edittranche-Verify-AddTranche.xlsx
+++ b/Finflux Automation Excels/Client/5016-CreateEmiPack-DisbLoan-Edittranche-Verify-AddTranche.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -196,12 +196,6 @@
     <t>addtranche</t>
   </si>
   <si>
-    <t>expecteddisbursementon2</t>
-  </si>
-  <si>
-    <t>principal2</t>
-  </si>
-  <si>
     <t>Original</t>
   </si>
   <si>
@@ -284,6 +278,12 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>expecteddisbursementon1</t>
+  </si>
+  <si>
+    <t>principal1</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B2" s="10">
         <v>42086</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2">
         <v>5900</v>
@@ -1172,22 +1172,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1288,49 +1288,49 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="L1" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P1" s="11"/>
       <c r="Q1" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1652,34 +1652,34 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="F1" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="K1" s="16"/>
       <c r="L1" s="16"/>
@@ -1689,13 +1689,13 @@
         <v>85</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="19">
         <v>42005</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="18">
         <v>80</v>
@@ -1723,13 +1723,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" s="19">
         <v>42005</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="20">
         <v>4000</v>
